--- a/Downer - Tasman/26020/res.xlsx
+++ b/Downer - Tasman/26020/res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer - Tasman\26020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3AE6F-C1A7-4B38-88FE-DB39BC0961CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B4ADCF-B45F-47B9-B771-AC0B79359570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1680" windowWidth="28455" windowHeight="18750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="870" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="169">
   <si>
     <t>type</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>5.6 - CBR (soaked)</t>
+  </si>
+  <si>
+    <t>970f6a1d-5474-4bfc-89c1-99f4afc5306d</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +889,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1047,7 +1055,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1055,6 +1063,7 @@
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1410,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H381"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1434,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1468,8 +1477,11 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1533,7 +1545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +1585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
